--- a/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
+++ b/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240151\Desktop\①試遊会に向けて\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B5464-43C2-461F-A775-A8EA29DE6F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE72BA-9C40-40AB-BB7F-3FE7809D9953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>チームNo</t>
     <phoneticPr fontId="1"/>
@@ -427,6 +427,77 @@
   </si>
   <si>
     <t>PG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このゲームは、鳥に風船を割られないようによけながら、様々な色のリングをくぐってスコアを稼ぐゲーム
+マウスを動かすとそれに追従してプレイヤーが動く
+マウスの左クリックでカーソルの位置に向かって早く動くことができる
+いつ鳥が飛んでくるかわからないドキドキ感と、動きの速い鳥をギリギリで避けるスリル感が味わえる
+</t>
+    <rPh sb="7" eb="8">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>サマザマナイロ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>アジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1318,8 +1389,195 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1346,38 +1604,12 @@
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1426,172 +1658,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2691,8 +2762,8 @@
   </sheetPr>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2709,24 +2780,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2749,48 +2820,48 @@
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="45"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="58"/>
+      <c r="I3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="75" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="86">
+      <c r="A4" s="54">
         <v>1112</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="I4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2803,30 +2874,30 @@
       <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="45"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="87"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="I5" s="35" t="s">
         <v>50</v>
       </c>
@@ -2839,94 +2910,94 @@
       <c r="L5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="88"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="69"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="93"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="89" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="27"/>
     </row>
@@ -2934,46 +3005,46 @@
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="21"/>
       <c r="R10" s="22"/>
     </row>
@@ -2981,122 +3052,122 @@
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="33"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="I15" s="105" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="I15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106" t="s">
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="33"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
@@ -3106,187 +3177,210 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="I19" s="44" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="I19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="60" t="s">
+      <c r="J19" s="58"/>
+      <c r="K19" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="106"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="109"/>
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
+      <c r="A22" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
       <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="90"/>
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="90"/>
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="90"/>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="90"/>
       <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
       <c r="P27" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mjSDXw4ayP3OFAtraPN26udqwFBQ6Xc38322fMdZy2CLmgb9cEt6tsTRpHEQWcG+K44aEgR3VD4Em2jfzUzN7A==" saltValue="nJHhgTgbu6jwnWGq9dZJyA==" spinCount="100000" sheet="1" formatCells="0"/>
   <dataConsolidate/>
   <mergeCells count="57">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A22:O27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q5:Y5"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I18:O18"/>
@@ -3303,37 +3397,16 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="Q5:Y5"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A22:O27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F19:G19">

--- a/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
+++ b/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE72BA-9C40-40AB-BB7F-3FE7809D9953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F01BFE-225E-4170-BB15-B4EBB575B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GIGA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曽和　真英</t>
     <rPh sb="0" eb="2">
       <t>ソワ</t>
@@ -498,6 +494,10 @@
     <rPh sb="148" eb="149">
       <t>アジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GI1A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1389,6 +1389,261 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,261 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2762,8 +2762,8 @@
   </sheetPr>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:O27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2780,24 +2780,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="I1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2820,48 +2820,48 @@
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="58"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="45"/>
+      <c r="I3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="43" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="54">
+      <c r="A4" s="86">
         <v>1112</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
       <c r="I4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2874,35 +2874,35 @@
       <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="58"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="55"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="35" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>10</v>
@@ -2910,94 +2910,94 @@
       <c r="L5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="56"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="64" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="93"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="27"/>
     </row>
@@ -3005,169 +3005,169 @@
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
+      <c r="B9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="B10" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="21"/>
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+        <v>67</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="33"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="37" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="I15" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38" t="s">
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="33"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
@@ -3177,179 +3177,220 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="I19" s="57" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="I19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="104" t="s">
+      <c r="J19" s="45"/>
+      <c r="K19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="106"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="67" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="109"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
+      <c r="A22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="91"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="90"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="91"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="90"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="91"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="91"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="90"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
       <c r="P27" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mjSDXw4ayP3OFAtraPN26udqwFBQ6Xc38322fMdZy2CLmgb9cEt6tsTRpHEQWcG+K44aEgR3VD4Em2jfzUzN7A==" saltValue="nJHhgTgbu6jwnWGq9dZJyA==" spinCount="100000" sheet="1" formatCells="0"/>
   <dataConsolidate/>
   <mergeCells count="57">
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="Q5:Y5"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="A22:O27"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B8:C8"/>
@@ -3366,47 +3407,6 @@
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="K21:O21"/>
-    <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q5:Y5"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F19:G19">
